--- a/testData/clientData.xlsx
+++ b/testData/clientData.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19320" windowHeight="9915" tabRatio="716"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="5100" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="Client_Details" sheetId="26" r:id="rId1"/>
+    <sheet name="Address_Details" sheetId="27" r:id="rId2"/>
+    <sheet name="Payment_Arrangement" sheetId="28" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -66,10 +68,79 @@
     <t>New/Person</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Main Street</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>TN Tennessee</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Tennessee Farmers Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Middle Name</t>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Post Code</t>
   </si>
   <si>
     <t>Surname</t>
@@ -129,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +214,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -483,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,16 +568,15 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,19 +593,25 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -543,8 +622,8 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f ca="1">"John " &amp; DAY(NOW()) &amp; MONTH(NOW()) &amp; HOUR(NOW())&amp;MINUTE(NOW())</f>
-        <v>John 2471628</v>
+        <f ca="1">"John " &amp; DAY(NOW()) &amp; MONTH(NOW()) &amp; HOUR(NOW())&amp;MINUTE(NOW())&amp;RANDBETWEEN(1,99)</f>
+        <v>John 267182251</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -553,10 +632,13 @@
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -566,9 +648,8 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f ca="1">"John " &amp; DAY(NOW()) &amp; MONTH(NOW()) &amp; HOUR(NOW())&amp;MINUTE(NOW())</f>
-        <v>John 2471628</v>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -577,6 +658,9 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -584,4 +668,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3">
+        <v>123245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/clientData.xlsx
+++ b/testData/clientData.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"John " &amp; DAY(NOW()) &amp; MONTH(NOW()) &amp; HOUR(NOW())&amp;MINUTE(NOW())&amp;RANDBETWEEN(1,99)</f>
-        <v>John 267182251</v>
+        <v>John 267182311</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>

--- a/testData/clientData.xlsx
+++ b/testData/clientData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="5100" tabRatio="716"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="5100" tabRatio="716" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client_Details" sheetId="26" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Date Of Birth</t>
   </si>
   <si>
-    <t>NINumber</t>
-  </si>
-  <si>
     <t>QC Test ID</t>
   </si>
   <si>
@@ -144,6 +141,48 @@
   </si>
   <si>
     <t>Surname</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>NI Type</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NI Number</t>
+  </si>
+  <si>
+    <t>6586523569845</t>
+  </si>
+  <si>
+    <t>Debit Order</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>SI Savings Individual</t>
+  </si>
+  <si>
+    <t>Sort Code</t>
+  </si>
+  <si>
+    <t>324234</t>
+  </si>
+  <si>
+    <t>Acc No</t>
+  </si>
+  <si>
+    <t>23424234</t>
   </si>
 </sst>
 </file>
@@ -557,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,100 +607,109 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="7" width="15.7109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f ca="1">"John " &amp; DAY(NOW()) &amp; MONTH(NOW()) &amp; HOUR(NOW())&amp;MINUTE(NOW())&amp;RANDBETWEEN(1,99)</f>
+        <v>John 307141711</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f ca="1">"John " &amp; DAY(NOW()) &amp; MONTH(NOW()) &amp; HOUR(NOW())&amp;MINUTE(NOW())&amp;RANDBETWEEN(1,99)</f>
-        <v>John 267182311</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +723,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,53 +740,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -753,56 +803,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
